--- a/05_結合テスト/02_内部レビュー/チーム1/基本情報登録_結合試験仕様書_山下.xlsx
+++ b/05_結合テスト/02_内部レビュー/チーム1/基本情報登録_結合試験仕様書_山下.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>結合試験仕様書</t>
   </si>
@@ -76,9 +76,6 @@
     <t>社員管理</t>
   </si>
   <si>
-    <t>勤怠管理</t>
-  </si>
-  <si>
     <t>確認内容</t>
   </si>
   <si>
@@ -88,13 +85,7 @@
     <t>機能選択一覧画面へ遷移すること。</t>
   </si>
   <si>
-    <t>勤怠実績一覧画面（社員用）へ遷移すること。</t>
-  </si>
-  <si>
     <t>社員情報一覧画面へ遷移すること。</t>
-  </si>
-  <si>
-    <t>勤怠実績一覧画面（管理者用）へ遷移すること。</t>
   </si>
   <si>
     <t>実施結果</t>
@@ -2683,9 +2674,7 @@
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" t="s" s="29">
-        <v>21</v>
-      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -2706,9 +2695,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
-      <c r="W19" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="W19" s="27"/>
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
@@ -2909,10 +2896,10 @@
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" t="s" s="37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s" s="29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -2953,7 +2940,7 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" t="s" s="29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -2993,9 +2980,7 @@
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="38"/>
-      <c r="B27" t="s" s="29">
-        <v>25</v>
-      </c>
+      <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -3014,9 +2999,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="U27" s="27"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
@@ -3109,7 +3092,7 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" t="s" s="29">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -3149,9 +3132,7 @@
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="38"/>
-      <c r="B31" t="s" s="29">
-        <v>27</v>
-      </c>
+      <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
@@ -3172,9 +3153,7 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="W31" s="27"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
@@ -3634,7 +3613,7 @@
     </row>
     <row r="44" ht="18" customHeight="1">
       <c r="A44" t="s" s="40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3673,7 +3652,7 @@
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" t="s" s="40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3712,7 +3691,7 @@
     </row>
     <row r="46" ht="28" customHeight="1">
       <c r="A46" t="s" s="29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -3751,7 +3730,7 @@
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="A47" t="s" s="40">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3790,7 +3769,7 @@
     </row>
     <row r="48" ht="28" customHeight="1">
       <c r="A48" t="s" s="40">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>

--- a/05_結合テスト/02_内部レビュー/チーム1/基本情報登録_結合試験仕様書_山下.xlsx
+++ b/05_結合テスト/02_内部レビュー/チーム1/基本情報登録_結合試験仕様書_山下.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>結合試験仕様書</t>
   </si>
@@ -52,15 +52,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>ユーザ権限</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>社員</t>
-  </si>
-  <si>
     <t>ログインボタン押下</t>
   </si>
   <si>
@@ -70,19 +61,10 @@
     <t>ログイン失敗</t>
   </si>
   <si>
-    <t>機能選択一覧画面</t>
-  </si>
-  <si>
-    <t>社員管理</t>
-  </si>
-  <si>
     <t>確認内容</t>
   </si>
   <si>
     <t>ログイン画面でエラーメッセージが表示されること。</t>
-  </si>
-  <si>
-    <t>機能選択一覧画面へ遷移すること。</t>
   </si>
   <si>
     <t>社員情報一覧画面へ遷移すること。</t>
@@ -107,9 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="mm/dd"/>
+    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="60" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -512,13 +495,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -584,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2141,9 +2124,7 @@
       <c r="T5" t="s" s="32">
         <v>12</v>
       </c>
-      <c r="U5" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
@@ -2198,9 +2179,7 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="33"/>
-      <c r="B7" t="s" s="29">
-        <v>13</v>
-      </c>
+      <c r="B7" s="34"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -2237,9 +2216,7 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" t="s" s="29">
-        <v>14</v>
-      </c>
+      <c r="B8" s="34"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -2257,9 +2234,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="31"/>
       <c r="S8" s="27"/>
-      <c r="T8" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="T8" s="27"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
@@ -2278,9 +2253,7 @@
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" t="s" s="29">
-        <v>15</v>
-      </c>
+      <c r="B9" s="34"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -2299,9 +2272,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
-      <c r="U9" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
       <c r="X9" s="27"/>
@@ -2357,7 +2328,7 @@
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" t="s" s="29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -2396,7 +2367,7 @@
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" t="s" s="29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -2418,9 +2389,7 @@
       <c r="T12" t="s" s="32">
         <v>12</v>
       </c>
-      <c r="U12" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="U12" s="27"/>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
@@ -2439,7 +2408,7 @@
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" t="s" s="29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2590,9 +2559,7 @@
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" t="s" s="29">
-        <v>19</v>
-      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -2612,12 +2579,8 @@
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
-      <c r="V17" t="s" s="32">
-        <v>12</v>
-      </c>
-      <c r="W17" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
@@ -2633,9 +2596,7 @@
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" t="s" s="29">
-        <v>20</v>
-      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2655,9 +2616,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
-      <c r="V18" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="V18" s="27"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
@@ -2896,10 +2855,10 @@
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" t="s" s="37">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s" s="29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -2940,7 +2899,7 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" t="s" s="29">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -3091,9 +3050,7 @@
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="38"/>
-      <c r="B30" t="s" s="29">
-        <v>24</v>
-      </c>
+      <c r="B30" s="34"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -3113,9 +3070,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
-      <c r="V30" t="s" s="32">
-        <v>12</v>
-      </c>
+      <c r="V30" s="27"/>
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
@@ -3613,7 +3568,7 @@
     </row>
     <row r="44" ht="18" customHeight="1">
       <c r="A44" t="s" s="40">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3652,7 +3607,7 @@
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" t="s" s="40">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3691,7 +3646,7 @@
     </row>
     <row r="46" ht="28" customHeight="1">
       <c r="A46" t="s" s="29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -3730,7 +3685,7 @@
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="A47" t="s" s="40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3769,7 +3724,7 @@
     </row>
     <row r="48" ht="28" customHeight="1">
       <c r="A48" t="s" s="40">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
